--- a/biology/Botanique/Agave_bracteosa/Agave_bracteosa.xlsx
+++ b/biology/Botanique/Agave_bracteosa/Agave_bracteosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agave bracteosa est une espèce de plante du genre agave originaire d'Amérique du Nord.
 Le nom anglais d'agave araignée provient de ces feuilles tombant vers le bas qui évoquent les pattes d'une araignée.
